--- a/Documentation/WebTours Профиль нагрузки_v1.2 (Новая статистика моя усложненая).xlsx
+++ b/Documentation/WebTours Профиль нагрузки_v1.2 (Новая статистика моя усложненая).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId5"/>
-    <pivotCache cacheId="294" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="130">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -469,18 +469,9 @@
     <t>Имя в скрипте</t>
   </si>
   <si>
-    <t>open_home_page</t>
-  </si>
-  <si>
     <t>SLA Status</t>
   </si>
   <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Maximum</t>
   </si>
   <si>
@@ -493,12 +484,6 @@
     <t>No Data</t>
   </si>
   <si>
-    <t>click_flights</t>
-  </si>
-  <si>
-    <t>find_flight</t>
-  </si>
-  <si>
     <t>ScriptName</t>
   </si>
   <si>
@@ -553,55 +538,79 @@
     <t>Duration + Think_time</t>
   </si>
   <si>
-    <t>Action_Transaction</t>
-  </si>
-  <si>
-    <t>browsingItenerary</t>
-  </si>
-  <si>
-    <t>CancelingFlight</t>
-  </si>
-  <si>
-    <t>choseFlightTime</t>
-  </si>
-  <si>
-    <t>continueButtonClick</t>
-  </si>
-  <si>
-    <t>flightsBottonClick</t>
-  </si>
-  <si>
-    <t>newUserRegistration</t>
-  </si>
-  <si>
-    <t>openHomePage</t>
-  </si>
-  <si>
-    <t>paymentDetails</t>
-  </si>
-  <si>
-    <t>signUpNowButtonClick</t>
-  </si>
-  <si>
-    <t>startFindingFlights</t>
-  </si>
-  <si>
-    <t>UC_01_LoginLogout</t>
-  </si>
-  <si>
-    <t>UC_02_TicketSearchWithoutBuying</t>
-  </si>
-  <si>
-    <t>UC_03_TicketBuying</t>
-  </si>
-  <si>
-    <t>UC_04_ItineraryListBrowsing</t>
-  </si>
-  <si>
-    <t>UC_06_RegistraitionRandomUser</t>
-  </si>
-  <si>
-    <t>UC_07_TicketSearchWithoutBuyingWithFlightSelection</t>
+    <t xml:space="preserve">Threshold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violation(%) </t>
+  </si>
+  <si>
+    <t>BuyTicket_Transaction</t>
+  </si>
+  <si>
+    <t>BuyTicketNoPay_Transaction</t>
+  </si>
+  <si>
+    <t>BuyTicketRemoval_Transaction</t>
+  </si>
+  <si>
+    <t>Customer_Profile</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>Flightts</t>
+  </si>
+  <si>
+    <t>from_to</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>Itinerary</t>
+  </si>
+  <si>
+    <t>Itinerary_Transaction</t>
+  </si>
+  <si>
+    <t>LoginLogout_Transaction</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>open_site</t>
+  </si>
+  <si>
+    <t>reg_new_user</t>
+  </si>
+  <si>
+    <t>RegNewUser_Transaction</t>
+  </si>
+  <si>
+    <t>Thank</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>UC2_LoginLogout</t>
+  </si>
+  <si>
+    <t>UC3_BuyTicketNoPay</t>
+  </si>
+  <si>
+    <t>UC4_BuyTicket</t>
+  </si>
+  <si>
+    <t>UC5_Itinerary</t>
+  </si>
+  <si>
+    <t>UC6_BuyTicketRemoval</t>
+  </si>
+  <si>
+    <t>UC7_RegNewUser</t>
   </si>
 </sst>
 </file>
@@ -612,12 +621,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1455,114 +1472,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1572,16 +1603,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1593,28 +1624,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1627,14 +1658,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1653,7 +1684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,32 +1695,45 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="66"/>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
+    <cellStyle name="20% — акцент1 3" xfId="68"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
+    <cellStyle name="20% — акцент2 3" xfId="70"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
+    <cellStyle name="20% — акцент3 3" xfId="72"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
+    <cellStyle name="20% — акцент4 3" xfId="74"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
+    <cellStyle name="20% — акцент5 3" xfId="76"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
+    <cellStyle name="20% — акцент6 3" xfId="78"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
+    <cellStyle name="40% — акцент1 3" xfId="69"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
+    <cellStyle name="40% — акцент2 3" xfId="71"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
+    <cellStyle name="40% — акцент3 3" xfId="73"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
+    <cellStyle name="40% — акцент4 3" xfId="75"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
+    <cellStyle name="40% — акцент5 3" xfId="77"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
+    <cellStyle name="40% — акцент6 3" xfId="79"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1725,31 +1768,18 @@
     <cellStyle name="Обычный 2" xfId="4"/>
     <cellStyle name="Обычный 3" xfId="42"/>
     <cellStyle name="Обычный 4" xfId="45"/>
+    <cellStyle name="Обычный 5" xfId="66"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
     <cellStyle name="Примечание 3" xfId="47"/>
+    <cellStyle name="Примечание 4" xfId="67"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="314">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -1757,886 +1787,32 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.000000"/>
@@ -2693,6 +1869,27 @@
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2707,53 +1904,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrey" refreshedDate="44941.848709143516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A64:G90" sheet="Автоматизированный расчет"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Операция/Скрипт" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Запросы" numFmtId="0">
-      <sharedItems count="9">
-        <s v="Главная страница"/>
-        <s v="Логин"/>
-        <s v="Переход на стр. Поиска"/>
-        <s v="Заполнение полей и поиск"/>
-        <s v="Выбор рейса"/>
-        <s v="Покупка"/>
-        <s v="Логаут"/>
-        <s v="Просмотр путевых листов"/>
-        <s v="Удаление"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Vus" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.95833333333333337" maxValue="1.9633333333333336"/>
-    </cacheField>
-    <cacheField name="Pacing" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="180"/>
-    </cacheField>
-    <cacheField name="Кол-во одним Vu" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.33333333333333331" maxValue="2.4"/>
-    </cacheField>
-    <cacheField name="Длительность ступени" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
-    </cacheField>
-    <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6666666666666679" maxValue="50"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrey" refreshedDate="44941.915818981484" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrey" refreshedDate="44943.856668171298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H32" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2803,246 +1954,53 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="26">
-  <r>
-    <s v="Покупка билета"/>
-    <x v="0"/>
-    <n v="1.9633333333333336"/>
-    <n v="57"/>
-    <n v="1.0526315789473684"/>
-    <n v="20"/>
-    <n v="41.333333333333336"/>
-  </r>
-  <r>
-    <s v="Покупка билета"/>
-    <x v="1"/>
-    <n v="1.9633333333333336"/>
-    <n v="57"/>
-    <n v="1.0526315789473684"/>
-    <n v="20"/>
-    <n v="41.333333333333336"/>
-  </r>
-  <r>
-    <s v="Покупка билета"/>
-    <x v="2"/>
-    <n v="1.9633333333333336"/>
-    <n v="57"/>
-    <n v="1.0526315789473684"/>
-    <n v="20"/>
-    <n v="41.333333333333336"/>
-  </r>
-  <r>
-    <s v="Покупка билета"/>
-    <x v="3"/>
-    <n v="1.9633333333333336"/>
-    <n v="57"/>
-    <n v="1.0526315789473684"/>
-    <n v="20"/>
-    <n v="41.333333333333336"/>
-  </r>
-  <r>
-    <s v="Покупка билета"/>
-    <x v="4"/>
-    <n v="1.9633333333333336"/>
-    <n v="57"/>
-    <n v="1.0526315789473684"/>
-    <n v="20"/>
-    <n v="41.333333333333336"/>
-  </r>
-  <r>
-    <s v="Покупка билета"/>
-    <x v="5"/>
-    <n v="1.9633333333333336"/>
-    <n v="57"/>
-    <n v="1.0526315789473684"/>
-    <n v="20"/>
-    <n v="41.333333333333336"/>
-  </r>
-  <r>
-    <s v="Покупка билета"/>
-    <x v="6"/>
-    <n v="1.9633333333333336"/>
-    <n v="57"/>
-    <n v="1.0526315789473684"/>
-    <n v="20"/>
-    <n v="41.333333333333336"/>
-  </r>
-  <r>
-    <s v="Логин и логаут"/>
-    <x v="0"/>
-    <n v="1.0416666666666667"/>
-    <n v="25"/>
-    <n v="2.4"/>
-    <n v="20"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <s v="Логин и логаут"/>
-    <x v="1"/>
-    <n v="1.0416666666666667"/>
-    <n v="25"/>
-    <n v="2.4"/>
-    <n v="20"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <s v="Логин и логаут"/>
-    <x v="6"/>
-    <n v="1.0416666666666667"/>
-    <n v="25"/>
-    <n v="2.4"/>
-    <n v="20"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <s v="Удаление брони"/>
-    <x v="0"/>
-    <n v="0.95833333333333337"/>
-    <n v="115"/>
-    <n v="0.52173913043478259"/>
-    <n v="20"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <s v="Удаление брони"/>
-    <x v="1"/>
-    <n v="0.95833333333333337"/>
-    <n v="115"/>
-    <n v="0.52173913043478259"/>
-    <n v="20"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <s v="Удаление брони"/>
-    <x v="7"/>
-    <n v="0.95833333333333337"/>
-    <n v="115"/>
-    <n v="0.52173913043478259"/>
-    <n v="20"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <s v="Удаление брони"/>
-    <x v="8"/>
-    <n v="0.95833333333333337"/>
-    <n v="115"/>
-    <n v="0.52173913043478259"/>
-    <n v="20"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <s v="Удаление брони"/>
-    <x v="6"/>
-    <n v="0.95833333333333337"/>
-    <n v="115"/>
-    <n v="0.52173913043478259"/>
-    <n v="20"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <s v="Поиск билета"/>
-    <x v="0"/>
-    <n v="1.0000000000000002"/>
-    <n v="180"/>
-    <n v="0.33333333333333331"/>
-    <n v="20"/>
-    <n v="6.6666666666666679"/>
-  </r>
-  <r>
-    <s v="Поиск билета"/>
-    <x v="0"/>
-    <n v="1.0000000000000002"/>
-    <n v="180"/>
-    <n v="0.33333333333333331"/>
-    <n v="20"/>
-    <n v="6.6666666666666679"/>
-  </r>
-  <r>
-    <s v="Поиск билета"/>
-    <x v="1"/>
-    <n v="1.0000000000000002"/>
-    <n v="180"/>
-    <n v="0.33333333333333331"/>
-    <n v="20"/>
-    <n v="6.6666666666666679"/>
-  </r>
-  <r>
-    <s v="Поиск билета"/>
-    <x v="2"/>
-    <n v="1.0000000000000002"/>
-    <n v="180"/>
-    <n v="0.33333333333333331"/>
-    <n v="20"/>
-    <n v="6.6666666666666679"/>
-  </r>
-  <r>
-    <s v="Поиск билета"/>
-    <x v="3"/>
-    <n v="1.0000000000000002"/>
-    <n v="180"/>
-    <n v="0.33333333333333331"/>
-    <n v="20"/>
-    <n v="6.6666666666666679"/>
-  </r>
-  <r>
-    <s v="Поиск билета"/>
-    <x v="4"/>
-    <n v="1.0000000000000002"/>
-    <n v="180"/>
-    <n v="0.33333333333333331"/>
-    <n v="20"/>
-    <n v="6.6666666666666679"/>
-  </r>
-  <r>
-    <s v="Поиск билета"/>
-    <x v="6"/>
-    <n v="1.0000000000000002"/>
-    <n v="180"/>
-    <n v="0.33333333333333331"/>
-    <n v="20"/>
-    <n v="6.6666666666666679"/>
-  </r>
-  <r>
-    <s v="Просмотр текущих бронирований"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="30"/>
-    <n v="2"/>
-    <n v="20"/>
-    <n v="40"/>
-  </r>
-  <r>
-    <s v="Просмотр текущих бронирований"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="30"/>
-    <n v="2"/>
-    <n v="20"/>
-    <n v="40"/>
-  </r>
-  <r>
-    <s v="Просмотр текущих бронирований"/>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="30"/>
-    <n v="2"/>
-    <n v="20"/>
-    <n v="40"/>
-  </r>
-  <r>
-    <s v="Просмотр текущих бронирований"/>
-    <x v="6"/>
-    <n v="1"/>
-    <n v="30"/>
-    <n v="2"/>
-    <n v="20"/>
-    <n v="40"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrey" refreshedDate="44943.856732060187" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A64:G90" sheet="Автоматизированный расчет"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Операция/Скрипт" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Запросы" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Главная страница"/>
+        <s v="Логин"/>
+        <s v="Переход на стр. Поиска"/>
+        <s v="Заполнение полей и поиск"/>
+        <s v="Выбор рейса"/>
+        <s v="Покупка"/>
+        <s v="Логаут"/>
+        <s v="Просмотр путевых листов"/>
+        <s v="Удаление"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vus" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.95833333333333337" maxValue="1.9633333333333336"/>
+    </cacheField>
+    <cacheField name="Pacing" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="180"/>
+    </cacheField>
+    <cacheField name="Кол-во одним Vu" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.33333333333333331" maxValue="2.4"/>
+    </cacheField>
+    <cacheField name="Длительность ступени" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Итого" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6666666666666679" maxValue="50"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
   <r>
     <s v="Удаление бронирования "/>
@@ -3357,8 +2315,247 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="26">
+  <r>
+    <s v="Покупка билета"/>
+    <x v="0"/>
+    <n v="1.9633333333333336"/>
+    <n v="57"/>
+    <n v="1.0526315789473684"/>
+    <n v="20"/>
+    <n v="41.333333333333336"/>
+  </r>
+  <r>
+    <s v="Покупка билета"/>
+    <x v="1"/>
+    <n v="1.9633333333333336"/>
+    <n v="57"/>
+    <n v="1.0526315789473684"/>
+    <n v="20"/>
+    <n v="41.333333333333336"/>
+  </r>
+  <r>
+    <s v="Покупка билета"/>
+    <x v="2"/>
+    <n v="1.9633333333333336"/>
+    <n v="57"/>
+    <n v="1.0526315789473684"/>
+    <n v="20"/>
+    <n v="41.333333333333336"/>
+  </r>
+  <r>
+    <s v="Покупка билета"/>
+    <x v="3"/>
+    <n v="1.9633333333333336"/>
+    <n v="57"/>
+    <n v="1.0526315789473684"/>
+    <n v="20"/>
+    <n v="41.333333333333336"/>
+  </r>
+  <r>
+    <s v="Покупка билета"/>
+    <x v="4"/>
+    <n v="1.9633333333333336"/>
+    <n v="57"/>
+    <n v="1.0526315789473684"/>
+    <n v="20"/>
+    <n v="41.333333333333336"/>
+  </r>
+  <r>
+    <s v="Покупка билета"/>
+    <x v="5"/>
+    <n v="1.9633333333333336"/>
+    <n v="57"/>
+    <n v="1.0526315789473684"/>
+    <n v="20"/>
+    <n v="41.333333333333336"/>
+  </r>
+  <r>
+    <s v="Покупка билета"/>
+    <x v="6"/>
+    <n v="1.9633333333333336"/>
+    <n v="57"/>
+    <n v="1.0526315789473684"/>
+    <n v="20"/>
+    <n v="41.333333333333336"/>
+  </r>
+  <r>
+    <s v="Логин и логаут"/>
+    <x v="0"/>
+    <n v="1.0416666666666667"/>
+    <n v="25"/>
+    <n v="2.4"/>
+    <n v="20"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <s v="Логин и логаут"/>
+    <x v="1"/>
+    <n v="1.0416666666666667"/>
+    <n v="25"/>
+    <n v="2.4"/>
+    <n v="20"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <s v="Логин и логаут"/>
+    <x v="6"/>
+    <n v="1.0416666666666667"/>
+    <n v="25"/>
+    <n v="2.4"/>
+    <n v="20"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <s v="Удаление брони"/>
+    <x v="0"/>
+    <n v="0.95833333333333337"/>
+    <n v="115"/>
+    <n v="0.52173913043478259"/>
+    <n v="20"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Удаление брони"/>
+    <x v="1"/>
+    <n v="0.95833333333333337"/>
+    <n v="115"/>
+    <n v="0.52173913043478259"/>
+    <n v="20"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Удаление брони"/>
+    <x v="7"/>
+    <n v="0.95833333333333337"/>
+    <n v="115"/>
+    <n v="0.52173913043478259"/>
+    <n v="20"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Удаление брони"/>
+    <x v="8"/>
+    <n v="0.95833333333333337"/>
+    <n v="115"/>
+    <n v="0.52173913043478259"/>
+    <n v="20"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Удаление брони"/>
+    <x v="6"/>
+    <n v="0.95833333333333337"/>
+    <n v="115"/>
+    <n v="0.52173913043478259"/>
+    <n v="20"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Поиск билета"/>
+    <x v="0"/>
+    <n v="1.0000000000000002"/>
+    <n v="180"/>
+    <n v="0.33333333333333331"/>
+    <n v="20"/>
+    <n v="6.6666666666666679"/>
+  </r>
+  <r>
+    <s v="Поиск билета"/>
+    <x v="0"/>
+    <n v="1.0000000000000002"/>
+    <n v="180"/>
+    <n v="0.33333333333333331"/>
+    <n v="20"/>
+    <n v="6.6666666666666679"/>
+  </r>
+  <r>
+    <s v="Поиск билета"/>
+    <x v="1"/>
+    <n v="1.0000000000000002"/>
+    <n v="180"/>
+    <n v="0.33333333333333331"/>
+    <n v="20"/>
+    <n v="6.6666666666666679"/>
+  </r>
+  <r>
+    <s v="Поиск билета"/>
+    <x v="2"/>
+    <n v="1.0000000000000002"/>
+    <n v="180"/>
+    <n v="0.33333333333333331"/>
+    <n v="20"/>
+    <n v="6.6666666666666679"/>
+  </r>
+  <r>
+    <s v="Поиск билета"/>
+    <x v="3"/>
+    <n v="1.0000000000000002"/>
+    <n v="180"/>
+    <n v="0.33333333333333331"/>
+    <n v="20"/>
+    <n v="6.6666666666666679"/>
+  </r>
+  <r>
+    <s v="Поиск билета"/>
+    <x v="4"/>
+    <n v="1.0000000000000002"/>
+    <n v="180"/>
+    <n v="0.33333333333333331"/>
+    <n v="20"/>
+    <n v="6.6666666666666679"/>
+  </r>
+  <r>
+    <s v="Поиск билета"/>
+    <x v="6"/>
+    <n v="1.0000000000000002"/>
+    <n v="180"/>
+    <n v="0.33333333333333331"/>
+    <n v="20"/>
+    <n v="6.6666666666666679"/>
+  </r>
+  <r>
+    <s v="Просмотр текущих бронирований"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <s v="Просмотр текущих бронирований"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <s v="Просмотр текущих бронирований"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <s v="Просмотр текущих бронирований"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="40"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I64:J74" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3424,21 +2621,21 @@
     <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="313">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="312">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="311">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3447,7 +2644,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="310">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3456,7 +2653,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="309">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3465,7 +2662,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="308">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3485,7 +2682,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="294" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3560,25 +2757,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="35">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3856,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,7 +3066,7 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" customWidth="1"/>
@@ -3877,7 +3074,7 @@
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
     <col min="15" max="15" width="23.85546875" customWidth="1"/>
     <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" customWidth="1"/>
     <col min="22" max="22" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -3925,7 +3122,7 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>46</v>
@@ -5197,19 +4394,19 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="75"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
       <c r="F35" s="21"/>
       <c r="H35" s="20"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="77"/>
+      <c r="B38" s="76"/>
     </row>
     <row r="39" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
@@ -5226,7 +4423,7 @@
       </c>
       <c r="E39" s="58"/>
       <c r="F39" s="57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>56</v>
@@ -5256,19 +4453,19 @@
       <c r="E40" s="54"/>
       <c r="F40" s="53" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
-        <v>open_home_page</v>
+        <v>open_site</v>
       </c>
       <c r="G40" s="59">
         <f>C40/3</f>
         <v>180.29362954285554</v>
       </c>
-      <c r="H40" s="48" t="e">
+      <c r="H40" s="48">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" s="26" t="e">
+        <v>181</v>
+      </c>
+      <c r="I40" s="26">
         <f t="shared" ref="I40:I51" si="17">1-G40/H40</f>
-        <v>#N/A</v>
+        <v>3.9025992107428742E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5297,11 +4494,11 @@
       </c>
       <c r="H41" s="48">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="I41" s="26">
         <f t="shared" si="17"/>
-        <v>-8.7214684635464224E-2</v>
+        <v>7.6429724132676125E-3</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -5321,15 +4518,15 @@
       <c r="E42" s="54"/>
       <c r="F42" s="53" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
-        <v>click_flights</v>
+        <v>Flightts</v>
       </c>
       <c r="G42" s="59">
         <f t="shared" si="19"/>
         <v>104.66666666666667</v>
       </c>
-      <c r="H42" s="48" t="e">
+      <c r="H42" s="48">
         <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>90</v>
       </c>
       <c r="I42" s="26"/>
     </row>
@@ -5351,19 +4548,19 @@
       <c r="E43" s="54"/>
       <c r="F43" s="53" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
-        <v>find_flight</v>
+        <v>ticket</v>
       </c>
       <c r="G43" s="59">
         <f t="shared" si="19"/>
         <v>89.264705882352942</v>
       </c>
-      <c r="H43" s="48" t="e">
+      <c r="H43" s="48">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I43" s="26" t="e">
+        <v>90</v>
+      </c>
+      <c r="I43" s="26">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>8.1699346405228468E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -5382,21 +4579,21 @@
         <v>-8.2372322899504358E-3</v>
       </c>
       <c r="E44" s="54"/>
-      <c r="F44" s="53">
+      <c r="F44" s="53" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>from_to</v>
       </c>
       <c r="G44" s="59">
         <f t="shared" si="19"/>
         <v>89.264705882352942</v>
       </c>
-      <c r="H44" s="48" t="e">
+      <c r="H44" s="48">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I44" s="26" t="e">
+        <v>90</v>
+      </c>
+      <c r="I44" s="26">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>8.1699346405228468E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5415,21 +4612,21 @@
         <v>4.4176706827309231E-2</v>
       </c>
       <c r="E45" s="54"/>
-      <c r="F45" s="53">
+      <c r="F45" s="53" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>payment_details</v>
       </c>
       <c r="G45" s="59">
         <f t="shared" si="19"/>
         <v>61.029411764705884</v>
       </c>
-      <c r="H45" s="48" t="e">
+      <c r="H45" s="48">
         <f>VLOOKUP(F45,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I45" s="26" t="e">
+        <v>61</v>
+      </c>
+      <c r="I45" s="26">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>-4.8216007714563247E-4</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5448,21 +4645,21 @@
         <v>1.0909090909090979E-2</v>
       </c>
       <c r="E46" s="67"/>
-      <c r="F46" s="53">
+      <c r="F46" s="53" t="str">
         <f>VLOOKUP(A46,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>invoice</v>
       </c>
       <c r="G46" s="59">
         <f t="shared" si="19"/>
         <v>94.362745098039227</v>
       </c>
-      <c r="H46" s="48" t="e">
+      <c r="H46" s="48">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I46" s="26" t="e">
+        <v>60</v>
+      </c>
+      <c r="I46" s="26">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>-0.57271241830065378</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5481,21 +4678,21 @@
         <v>-3.4166666666666679E-2</v>
       </c>
       <c r="E47" s="54"/>
-      <c r="F47" s="53">
+      <c r="F47" s="53" t="str">
         <f>VLOOKUP(A47,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>del</v>
       </c>
       <c r="G47" s="59">
         <f t="shared" si="19"/>
         <v>23.529411764705884</v>
       </c>
-      <c r="H47" s="48" t="e">
+      <c r="H47" s="48">
         <f>VLOOKUP(F47,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I47" s="26" t="e">
+        <v>23</v>
+      </c>
+      <c r="I47" s="26">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>-2.3017902813299296E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5514,21 +4711,21 @@
         <v>7.2503873124591944E-3</v>
       </c>
       <c r="E48" s="54"/>
-      <c r="F48" s="53">
+      <c r="F48" s="53" t="str">
         <f>VLOOKUP(A48,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>Logout</v>
       </c>
       <c r="G48" s="59">
         <f t="shared" si="19"/>
         <v>109.46029620952221</v>
       </c>
-      <c r="H48" s="48" t="e">
+      <c r="H48" s="48">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I48" s="26" t="e">
+        <v>146</v>
+      </c>
+      <c r="I48" s="26">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0.25027194377039585</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
@@ -5547,18 +4744,21 @@
         <v>3.0555555555555891E-3</v>
       </c>
       <c r="E49" s="54"/>
-      <c r="F49" s="53">
+      <c r="F49" s="53" t="str">
         <f>VLOOKUP(A49,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>reg_new_user</v>
       </c>
       <c r="G49" s="59">
         <f t="shared" si="19"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="26" t="e">
+      <c r="H49" s="48">
+        <f>VLOOKUP(F49,SummaryReport!A:J,8,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="I49" s="26">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.7199017199017064E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
@@ -5577,18 +4777,21 @@
         <v>3.0555555555555891E-3</v>
       </c>
       <c r="E50" s="54"/>
-      <c r="F50" s="53">
+      <c r="F50" s="53" t="str">
         <f>VLOOKUP(A50,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>Customer_Profile</v>
       </c>
       <c r="G50" s="59">
         <f t="shared" si="19"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H50" s="48"/>
-      <c r="I50" s="26" t="e">
+      <c r="H50" s="48">
+        <f>VLOOKUP(F50,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="I50" s="26">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>-1.3513513513513598E-2</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
@@ -5607,18 +4810,21 @@
         <v>3.0555555555555891E-3</v>
       </c>
       <c r="E51" s="54"/>
-      <c r="F51" s="53">
+      <c r="F51" s="53" t="str">
         <f>VLOOKUP(A51,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>Thank</v>
       </c>
       <c r="G51" s="59">
         <f t="shared" si="19"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="H51" s="48"/>
-      <c r="I51" s="26" t="e">
+      <c r="H51" s="48">
+        <f>VLOOKUP(F51,SummaryReport!A:J,8,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="I51" s="26">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>1.7199017199017064E-2</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5653,7 +4859,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
         <v>75</v>
@@ -5671,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5711,7 +4917,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B57" s="61">
         <f>150/3</f>
@@ -5746,7 +4952,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="60" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B58" s="62">
         <f>30/3</f>
@@ -5855,19 +5061,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
@@ -5887,7 +5093,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C65" s="20">
         <f>VLOOKUP(A65,$A$56:$H$60,6,FALSE)</f>
@@ -5909,7 +5115,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J65" s="20">
         <v>48</v>
@@ -5942,7 +5148,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J66" s="20">
         <v>154.66666666666669</v>
@@ -5953,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C67" s="20">
         <f t="shared" si="21"/>
@@ -5975,7 +5181,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J67" s="20">
         <v>48</v>
@@ -5986,7 +5192,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C68" s="20">
         <f t="shared" si="21"/>
@@ -6008,7 +5214,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I68" s="63" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J68" s="20">
         <v>148</v>
@@ -6019,7 +5225,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C69" s="20">
         <f t="shared" si="21"/>
@@ -6052,7 +5258,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C70" s="20">
         <f t="shared" si="21"/>
@@ -6074,7 +5280,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J70" s="20">
         <v>48</v>
@@ -6085,7 +5291,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" si="21"/>
@@ -6107,7 +5313,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I71" s="63" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J71" s="20">
         <v>41.333333333333336</v>
@@ -6115,10 +5321,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C72" s="20">
         <f t="shared" si="21"/>
@@ -6140,7 +5346,7 @@
         <v>50</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J72" s="20">
         <v>50</v>
@@ -6148,7 +5354,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
         <v>68</v>
@@ -6173,7 +5379,7 @@
         <v>50</v>
       </c>
       <c r="I73" s="63" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J73" s="20">
         <v>10</v>
@@ -6181,10 +5387,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C74" s="20">
         <f t="shared" si="21"/>
@@ -6214,10 +5420,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C75" s="20">
         <f t="shared" si="21"/>
@@ -6241,7 +5447,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
         <v>68</v>
@@ -6268,10 +5474,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C77" s="20">
         <f t="shared" si="21"/>
@@ -6295,10 +5501,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C78" s="20">
         <f t="shared" si="21"/>
@@ -6322,10 +5528,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C79" s="20">
         <f t="shared" si="21"/>
@@ -6352,7 +5558,7 @@
         <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C80" s="20">
         <f t="shared" si="21"/>
@@ -6379,7 +5585,7 @@
         <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C81" s="20">
         <f t="shared" si="21"/>
@@ -6433,7 +5639,7 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C83" s="20">
         <f t="shared" si="21"/>
@@ -6460,7 +5666,7 @@
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C84" s="20">
         <f t="shared" si="21"/>
@@ -6487,7 +5693,7 @@
         <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C85" s="20">
         <f t="shared" si="21"/>
@@ -6514,7 +5720,7 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C86" s="20">
         <f t="shared" si="21"/>
@@ -6541,7 +5747,7 @@
         <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C87" s="20">
         <f t="shared" si="21"/>
@@ -6595,7 +5801,7 @@
         <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C89" s="20">
         <f t="shared" si="21"/>
@@ -6622,7 +5828,7 @@
         <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C90" s="20">
         <f t="shared" si="21"/>
@@ -6659,13 +5865,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6682,7 +5888,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6699,8 +5905,8 @@
         <f>'Автоматизированный расчет'!A42</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
+      <c r="B4" s="78" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +5915,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6717,47 +5923,71 @@
         <f>'Автоматизированный расчет'!A44</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'Автоматизированный расчет'!A45</f>
         <v>Оплата билета</v>
       </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Автоматизированный расчет'!A46</f>
         <v>Просмотр квитанций</v>
       </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'Автоматизированный расчет'!A47</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Автоматизированный расчет'!A48</f>
         <v>Выход из системы</v>
       </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Автоматизированный расчет'!A49</f>
         <v>Перход на страницу регистрации</v>
       </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>'Автоматизированный расчет'!A50</f>
         <v>Заполнение полей регистарции</v>
       </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>'Автоматизированный расчет'!A51</f>
         <v>Переход на следуюущий эран после регистарции</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6767,654 +5997,847 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="F1" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="G1" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="H1" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="73" t="s">
+      <c r="C2" s="78">
+        <v>0</v>
+      </c>
+      <c r="D2" s="78">
+        <v>0</v>
+      </c>
+      <c r="E2" s="78">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F2" s="78">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="78">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H2" s="78">
+        <v>37</v>
+      </c>
+      <c r="I2" s="78">
+        <v>0</v>
+      </c>
+      <c r="J2" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="78">
+        <v>0</v>
+      </c>
+      <c r="D3" s="78">
+        <v>0</v>
+      </c>
+      <c r="E3" s="78">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F3" s="78">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G3" s="78">
+        <v>0.442</v>
+      </c>
+      <c r="H3" s="78">
         <v>28</v>
       </c>
-      <c r="I1" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="I3" s="78">
+        <v>0</v>
+      </c>
+      <c r="J3" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="78">
+        <v>0</v>
+      </c>
+      <c r="D4" s="78">
+        <v>0</v>
+      </c>
+      <c r="E4" s="78">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F4" s="78">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G4" s="78">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H4" s="78">
+        <v>23</v>
+      </c>
+      <c r="I4" s="78">
+        <v>0</v>
+      </c>
+      <c r="J4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="73">
-        <v>0.188</v>
-      </c>
-      <c r="D2" s="73">
-        <v>0.434</v>
-      </c>
-      <c r="E2" s="73">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F2" s="73">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G2" s="73">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="H2" s="73">
-        <v>169</v>
-      </c>
-      <c r="I2" s="73">
-        <v>0</v>
-      </c>
-      <c r="J2" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="B5" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="78">
+        <v>0</v>
+      </c>
+      <c r="D5" s="78">
+        <v>0</v>
+      </c>
+      <c r="E5" s="78">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F5" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G5" s="78">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H5" s="78">
+        <v>32</v>
+      </c>
+      <c r="I5" s="78">
+        <v>1</v>
+      </c>
+      <c r="J5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="73">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D3" s="73">
+      <c r="B6" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="78">
+        <v>0</v>
+      </c>
+      <c r="D6" s="78">
+        <v>0</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0.158</v>
+      </c>
+      <c r="F6" s="78">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H6" s="78">
+        <v>23</v>
+      </c>
+      <c r="I6" s="78">
+        <v>0</v>
+      </c>
+      <c r="J6" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0.126</v>
+      </c>
+      <c r="F7" s="78">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="78">
         <v>0.111</v>
       </c>
-      <c r="E3" s="73">
-        <v>0.156</v>
-      </c>
-      <c r="F3" s="73">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G3" s="73">
-        <v>0.128</v>
-      </c>
-      <c r="H3" s="73">
-        <v>97</v>
-      </c>
-      <c r="I3" s="73">
-        <v>0</v>
-      </c>
-      <c r="J3" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D4" s="73">
+      <c r="H7" s="78">
+        <v>90</v>
+      </c>
+      <c r="I7" s="78">
+        <v>0</v>
+      </c>
+      <c r="J7" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="78">
+        <v>0</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0</v>
+      </c>
+      <c r="E8" s="78">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E4" s="73">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F4" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="73">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H4" s="73">
+      <c r="F8" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G8" s="78">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H8" s="78">
+        <v>90</v>
+      </c>
+      <c r="I8" s="78">
+        <v>0</v>
+      </c>
+      <c r="J8" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="78">
+        <v>0</v>
+      </c>
+      <c r="D9" s="78">
+        <v>0</v>
+      </c>
+      <c r="E9" s="78">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F9" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="78">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="78">
+        <v>60</v>
+      </c>
+      <c r="I9" s="78">
+        <v>0</v>
+      </c>
+      <c r="J9" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="78">
+        <v>0</v>
+      </c>
+      <c r="D10" s="78">
+        <v>0</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0.126</v>
+      </c>
+      <c r="F10" s="78">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G10" s="78">
+        <v>0.111</v>
+      </c>
+      <c r="H10" s="78">
+        <v>34</v>
+      </c>
+      <c r="I10" s="78">
+        <v>0</v>
+      </c>
+      <c r="J10" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="78">
+        <v>0</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F11" s="78">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G11" s="78">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H11" s="78">
+        <v>34</v>
+      </c>
+      <c r="I11" s="78">
+        <v>0</v>
+      </c>
+      <c r="J11" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="73">
-        <v>0</v>
-      </c>
-      <c r="J4" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D5" s="73">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E5" s="73">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F5" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="73">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H5" s="73">
-        <v>92</v>
-      </c>
-      <c r="I5" s="73">
-        <v>0</v>
-      </c>
-      <c r="J5" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="73">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D6" s="73">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E6" s="73">
-        <v>0.123</v>
-      </c>
-      <c r="F6" s="73">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G6" s="73">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H6" s="73">
+      <c r="B12" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12" s="78">
+        <v>0</v>
+      </c>
+      <c r="E12" s="78">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="78">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G12" s="78">
+        <v>0.127</v>
+      </c>
+      <c r="H12" s="78">
+        <v>149</v>
+      </c>
+      <c r="I12" s="78">
+        <v>0</v>
+      </c>
+      <c r="J12" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="78">
+        <v>0</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0</v>
+      </c>
+      <c r="E13" s="78">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F13" s="78">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G13" s="78">
+        <v>0.251</v>
+      </c>
+      <c r="H13" s="78">
+        <v>26</v>
+      </c>
+      <c r="I13" s="78">
+        <v>0</v>
+      </c>
+      <c r="J13" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="78">
+        <v>0</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0</v>
+      </c>
+      <c r="E14" s="78">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F14" s="78">
+        <v>2E-3</v>
+      </c>
+      <c r="G14" s="78">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H14" s="78">
+        <v>146</v>
+      </c>
+      <c r="I14" s="78">
+        <v>0</v>
+      </c>
+      <c r="J14" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="78">
+        <v>0</v>
+      </c>
+      <c r="D15" s="78">
+        <v>0</v>
+      </c>
+      <c r="E15" s="78">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F15" s="78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="78">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H15" s="78">
+        <v>181</v>
+      </c>
+      <c r="I15" s="78">
+        <v>0</v>
+      </c>
+      <c r="J15" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="78">
+        <v>0</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="78">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F16" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G16" s="78">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H16" s="78">
+        <v>61</v>
+      </c>
+      <c r="I16" s="78">
+        <v>0</v>
+      </c>
+      <c r="J16" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
+      <c r="E17" s="78">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F17" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G17" s="78">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H17" s="78">
+        <v>33</v>
+      </c>
+      <c r="I17" s="78">
+        <v>0</v>
+      </c>
+      <c r="J17" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="78">
+        <v>0</v>
+      </c>
+      <c r="D18" s="78">
+        <v>0</v>
+      </c>
+      <c r="E18" s="78">
+        <v>0.318</v>
+      </c>
+      <c r="F18" s="78">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G18" s="78">
+        <v>0.311</v>
+      </c>
+      <c r="H18" s="78">
         <v>32</v>
       </c>
-      <c r="I6" s="73">
-        <v>0</v>
-      </c>
-      <c r="J6" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="73">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D7" s="73">
+      <c r="I18" s="78">
+        <v>1</v>
+      </c>
+      <c r="J18" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="78">
+        <v>0</v>
+      </c>
+      <c r="D19" s="78">
+        <v>0</v>
+      </c>
+      <c r="E19" s="78">
         <v>0.111</v>
       </c>
-      <c r="E7" s="73">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F7" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G7" s="73">
-        <v>0.128</v>
-      </c>
-      <c r="H7" s="73">
-        <v>98</v>
-      </c>
-      <c r="I7" s="73">
-        <v>0</v>
-      </c>
-      <c r="J7" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="73">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D8" s="73">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E8" s="73">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F8" s="73">
+      <c r="F19" s="78">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0.111</v>
+      </c>
+      <c r="H19" s="78">
+        <v>33</v>
+      </c>
+      <c r="I19" s="78">
+        <v>0</v>
+      </c>
+      <c r="J19" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="78">
+        <v>0</v>
+      </c>
+      <c r="D20" s="78">
+        <v>0</v>
+      </c>
+      <c r="E20" s="78">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F20" s="78">
+        <v>2E-3</v>
+      </c>
+      <c r="G20" s="78">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H20" s="78">
+        <v>90</v>
+      </c>
+      <c r="I20" s="78">
+        <v>0</v>
+      </c>
+      <c r="J20" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="78">
+        <v>0</v>
+      </c>
+      <c r="D21" s="78">
+        <v>0</v>
+      </c>
+      <c r="E21" s="78">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F21" s="78">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G21" s="78">
+        <v>0.251</v>
+      </c>
+      <c r="H21" s="78">
+        <v>26</v>
+      </c>
+      <c r="I21" s="78">
+        <v>0</v>
+      </c>
+      <c r="J21" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="78">
+        <v>0</v>
+      </c>
+      <c r="D22" s="78">
+        <v>0</v>
+      </c>
+      <c r="E22" s="78">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F22" s="78">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G22" s="78">
+        <v>0.442</v>
+      </c>
+      <c r="H22" s="78">
+        <v>28</v>
+      </c>
+      <c r="I22" s="78">
+        <v>0</v>
+      </c>
+      <c r="J22" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="78">
+        <v>0</v>
+      </c>
+      <c r="D23" s="78">
+        <v>0</v>
+      </c>
+      <c r="E23" s="78">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F23" s="78">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G8" s="73">
-        <v>0.107</v>
-      </c>
-      <c r="H8" s="73">
-        <v>136</v>
-      </c>
-      <c r="I8" s="73">
-        <v>0</v>
-      </c>
-      <c r="J8" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="73">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D9" s="73">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E9" s="73">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F9" s="73">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G9" s="73">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="73">
-        <v>107</v>
-      </c>
-      <c r="I9" s="73">
-        <v>0</v>
-      </c>
-      <c r="J9" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="73">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E10" s="73">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F10" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G10" s="73">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H10" s="73">
+      <c r="G23" s="78">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H23" s="78">
+        <v>37</v>
+      </c>
+      <c r="I23" s="78">
+        <v>0</v>
+      </c>
+      <c r="J23" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="78">
+        <v>0</v>
+      </c>
+      <c r="D24" s="78">
+        <v>0</v>
+      </c>
+      <c r="E24" s="78">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F24" s="78">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G24" s="78">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H24" s="78">
+        <v>34</v>
+      </c>
+      <c r="I24" s="78">
+        <v>0</v>
+      </c>
+      <c r="J24" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="78">
+        <v>0</v>
+      </c>
+      <c r="D25" s="78">
+        <v>0</v>
+      </c>
+      <c r="E25" s="78">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F25" s="78">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G25" s="78">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H25" s="78">
+        <v>23</v>
+      </c>
+      <c r="I25" s="78">
+        <v>0</v>
+      </c>
+      <c r="J25" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="78">
+        <v>0</v>
+      </c>
+      <c r="D26" s="78">
+        <v>0</v>
+      </c>
+      <c r="E26" s="78">
+        <v>0.318</v>
+      </c>
+      <c r="F26" s="78">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G26" s="78">
+        <v>0.311</v>
+      </c>
+      <c r="H26" s="78">
         <v>32</v>
       </c>
-      <c r="I10" s="73">
-        <v>0</v>
-      </c>
-      <c r="J10" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="73">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D11" s="73">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="E11" s="73">
-        <v>0.105</v>
-      </c>
-      <c r="F11" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G11" s="73">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H11" s="73">
-        <v>169</v>
-      </c>
-      <c r="I11" s="73">
-        <v>0</v>
-      </c>
-      <c r="J11" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D12" s="73">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E12" s="73">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F12" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G12" s="73">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H12" s="73">
-        <v>58</v>
-      </c>
-      <c r="I12" s="73">
-        <v>0</v>
-      </c>
-      <c r="J12" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="73">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D13" s="73">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E13" s="73">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F13" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="G13" s="73">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H13" s="73">
-        <v>32</v>
-      </c>
-      <c r="I13" s="73">
-        <v>0</v>
-      </c>
-      <c r="J13" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="73">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D14" s="73">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E14" s="73">
-        <v>0.154</v>
-      </c>
-      <c r="F14" s="73">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G14" s="73">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="H14" s="73">
-        <v>98</v>
-      </c>
-      <c r="I14" s="73">
-        <v>0</v>
-      </c>
-      <c r="J14" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="73">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D15" s="73">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E15" s="73">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F15" s="73">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G15" s="73">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="H15" s="73">
-        <v>14</v>
-      </c>
-      <c r="I15" s="73">
-        <v>0</v>
-      </c>
-      <c r="J15" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="73">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="D16" s="73">
-        <v>0.309</v>
-      </c>
-      <c r="E16" s="73">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="F16" s="73">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G16" s="73">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="H16" s="73">
-        <v>6</v>
-      </c>
-      <c r="I16" s="73">
-        <v>0</v>
-      </c>
-      <c r="J16" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="73">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="E17" s="73">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F17" s="73">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G17" s="73">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="H17" s="73">
-        <v>59</v>
-      </c>
-      <c r="I17" s="73">
-        <v>0</v>
-      </c>
-      <c r="J17" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="73">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D18" s="73">
-        <v>0.312</v>
-      </c>
-      <c r="E18" s="73">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="F18" s="73">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G18" s="73">
-        <v>0.36</v>
-      </c>
-      <c r="H18" s="73">
-        <v>24</v>
-      </c>
-      <c r="I18" s="73">
-        <v>0</v>
-      </c>
-      <c r="J18" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="73">
-        <v>0.188</v>
-      </c>
-      <c r="D19" s="73">
-        <v>0.245</v>
-      </c>
-      <c r="E19" s="73">
-        <v>0.33</v>
-      </c>
-      <c r="F19" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G19" s="73">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="H19" s="73">
-        <v>32</v>
-      </c>
-      <c r="I19" s="73">
-        <v>0</v>
-      </c>
-      <c r="J19" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="73">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D20" s="73">
-        <v>0.47</v>
-      </c>
-      <c r="E20" s="73">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="F20" s="73">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G20" s="73">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="H20" s="73">
-        <v>34</v>
-      </c>
-      <c r="I20" s="73">
-        <v>0</v>
-      </c>
-      <c r="J20" s="73">
+      <c r="I26" s="78">
+        <v>1</v>
+      </c>
+      <c r="J26" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7450,13 +6873,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -7609,13 +7032,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -7775,13 +7198,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">

--- a/Documentation/WebTours Профиль нагрузки_v1.2 (Новая статистика моя усложненая).xlsx
+++ b/Documentation/WebTours Профиль нагрузки_v1.2 (Новая статистика моя усложненая).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\обучение\GitHub\LoadRunner\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D6993-A8AE-49E8-BD26-A58D3602AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -17,26 +18,34 @@
     <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
     <sheet name="Результаты всех тестов" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="129">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -566,9 +575,6 @@
   </si>
   <si>
     <t>invoice</t>
-  </si>
-  <si>
-    <t>Itinerary</t>
   </si>
   <si>
     <t>Itinerary_Transaction</t>
@@ -616,7 +622,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1686,6 +1692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="66"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1695,57 +1702,56 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="66"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент1 2" xfId="48"/>
-    <cellStyle name="20% — акцент1 3" xfId="68"/>
+    <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% — акцент1 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2 2" xfId="51"/>
-    <cellStyle name="20% — акцент2 3" xfId="70"/>
+    <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% — акцент2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3 2" xfId="54"/>
-    <cellStyle name="20% — акцент3 3" xfId="72"/>
+    <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% — акцент3 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4 2" xfId="57"/>
-    <cellStyle name="20% — акцент4 3" xfId="74"/>
+    <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% — акцент4 3" xfId="74" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5 2" xfId="60"/>
-    <cellStyle name="20% — акцент5 3" xfId="76"/>
+    <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% — акцент5 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6 2" xfId="63"/>
-    <cellStyle name="20% — акцент6 3" xfId="78"/>
+    <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% — акцент6 3" xfId="78" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1 2" xfId="49"/>
-    <cellStyle name="40% — акцент1 3" xfId="69"/>
+    <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% — акцент1 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
     <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2 2" xfId="52"/>
-    <cellStyle name="40% — акцент2 3" xfId="71"/>
+    <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% — акцент2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3 2" xfId="55"/>
-    <cellStyle name="40% — акцент3 3" xfId="73"/>
+    <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% — акцент3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4 2" xfId="58"/>
-    <cellStyle name="40% — акцент4 3" xfId="75"/>
+    <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% — акцент4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5 2" xfId="61"/>
-    <cellStyle name="40% — акцент5 3" xfId="77"/>
+    <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% — акцент5 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6 2" xfId="64"/>
-    <cellStyle name="40% — акцент6 3" xfId="79"/>
+    <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% — акцент6 3" xfId="79" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1 2" xfId="50"/>
+    <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2 2" xfId="53"/>
+    <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3 2" xfId="56"/>
+    <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4 2" xfId="59"/>
+    <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5 2" xfId="62"/>
+    <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6 2" xfId="65"/>
+    <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1763,78 +1769,23 @@
     <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Название" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Нейтральный 2" xfId="46"/>
+    <cellStyle name="Нейтральный 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="4"/>
-    <cellStyle name="Обычный 3" xfId="42"/>
-    <cellStyle name="Обычный 4" xfId="45"/>
-    <cellStyle name="Обычный 5" xfId="66"/>
+    <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Обычный 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="43"/>
-    <cellStyle name="Примечание 3" xfId="47"/>
-    <cellStyle name="Примечание 4" xfId="67"/>
+    <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Примечание 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1879,7 +1830,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="168" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1888,7 +1839,7 @@
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1904,7 +1855,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrey" refreshedDate="44943.856668171298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrey" refreshedDate="44943.856668171298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H32" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1955,7 +1906,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andrey" refreshedDate="44943.856732060187" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Andrey" refreshedDate="44943.856732060187" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A64:G90" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2555,7 +2506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I64:J74" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2621,21 +2572,21 @@
     <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="18">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2644,7 +2595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2653,7 +2604,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2662,7 +2613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2677,12 +2628,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2757,25 +2711,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="25">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2783,6 +2737,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -3050,11 +3007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,10 +4360,10 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="77"/>
     </row>
     <row r="39" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
@@ -4655,11 +4612,11 @@
       </c>
       <c r="H46" s="48">
         <f>VLOOKUP(F46,SummaryReport!A:J,8,FALSE)</f>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="I46" s="26">
         <f t="shared" si="17"/>
-        <v>-0.57271241830065378</v>
+        <v>-3.8589904046726353E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4721,11 +4678,11 @@
       </c>
       <c r="H48" s="48">
         <f>VLOOKUP(F48,SummaryReport!A:J,8,FALSE)</f>
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="I48" s="26">
         <f t="shared" si="17"/>
-        <v>0.25027194377039585</v>
+        <v>-1.3521261199279655E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="37.5" x14ac:dyDescent="0.25">
@@ -5861,7 +5818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5888,7 +5845,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5905,7 +5862,7 @@
         <f>'Автоматизированный расчет'!A42</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5915,7 +5872,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5960,7 +5917,7 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5969,7 +5926,7 @@
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5987,7 +5944,7 @@
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5996,11 +5953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,834 +5967,802 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="75" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="78">
-        <v>0</v>
-      </c>
-      <c r="D2" s="78">
-        <v>0</v>
-      </c>
-      <c r="E2" s="78">
+      <c r="C2" s="75">
+        <v>0</v>
+      </c>
+      <c r="D2" s="75">
+        <v>0</v>
+      </c>
+      <c r="E2" s="75">
         <v>0.52900000000000003</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="75">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="75">
         <v>0.52800000000000002</v>
       </c>
-      <c r="H2" s="78">
+      <c r="H2" s="75">
         <v>37</v>
       </c>
-      <c r="I2" s="78">
-        <v>0</v>
-      </c>
-      <c r="J2" s="78">
+      <c r="I2" s="75">
+        <v>0</v>
+      </c>
+      <c r="J2" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="78">
-        <v>0</v>
-      </c>
-      <c r="D3" s="78">
-        <v>0</v>
-      </c>
-      <c r="E3" s="78">
+      <c r="C3" s="75">
+        <v>0</v>
+      </c>
+      <c r="D3" s="75">
+        <v>0</v>
+      </c>
+      <c r="E3" s="75">
         <v>0.44600000000000001</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="75">
         <v>1.9E-2</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="75">
         <v>0.442</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="75">
         <v>28</v>
       </c>
-      <c r="I3" s="78">
-        <v>0</v>
-      </c>
-      <c r="J3" s="78">
+      <c r="I3" s="75">
+        <v>0</v>
+      </c>
+      <c r="J3" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="78">
-        <v>0</v>
-      </c>
-      <c r="D4" s="78">
-        <v>0</v>
-      </c>
-      <c r="E4" s="78">
+      <c r="C4" s="75">
+        <v>0</v>
+      </c>
+      <c r="D4" s="75">
+        <v>0</v>
+      </c>
+      <c r="E4" s="75">
         <v>0.68700000000000006</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="75">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="75">
         <v>0.67900000000000005</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="75">
         <v>23</v>
       </c>
-      <c r="I4" s="78">
-        <v>0</v>
-      </c>
-      <c r="J4" s="78">
+      <c r="I4" s="75">
+        <v>0</v>
+      </c>
+      <c r="J4" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="78">
-        <v>0</v>
-      </c>
-      <c r="D5" s="78">
-        <v>0</v>
-      </c>
-      <c r="E5" s="78">
+      <c r="C5" s="75">
+        <v>0</v>
+      </c>
+      <c r="D5" s="75">
+        <v>0</v>
+      </c>
+      <c r="E5" s="75">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="75">
         <v>1E-3</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="75">
         <v>3.9E-2</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="75">
         <v>32</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="75">
         <v>1</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="78">
-        <v>0</v>
-      </c>
-      <c r="D6" s="78">
-        <v>0</v>
-      </c>
-      <c r="E6" s="78">
+      <c r="C6" s="75">
+        <v>0</v>
+      </c>
+      <c r="D6" s="75">
+        <v>0</v>
+      </c>
+      <c r="E6" s="75">
         <v>0.158</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="75">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="75">
         <v>23</v>
       </c>
-      <c r="I6" s="78">
-        <v>0</v>
-      </c>
-      <c r="J6" s="78">
+      <c r="I6" s="75">
+        <v>0</v>
+      </c>
+      <c r="J6" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="78">
-        <v>0</v>
-      </c>
-      <c r="D7" s="78">
-        <v>0</v>
-      </c>
-      <c r="E7" s="78">
+      <c r="C7" s="75">
+        <v>0</v>
+      </c>
+      <c r="D7" s="75">
+        <v>0</v>
+      </c>
+      <c r="E7" s="75">
         <v>0.126</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="75">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="75">
         <v>0.111</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="75">
         <v>90</v>
       </c>
-      <c r="I7" s="78">
-        <v>0</v>
-      </c>
-      <c r="J7" s="78">
+      <c r="I7" s="75">
+        <v>0</v>
+      </c>
+      <c r="J7" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="78">
-        <v>0</v>
-      </c>
-      <c r="D8" s="78">
-        <v>0</v>
-      </c>
-      <c r="E8" s="78">
+      <c r="C8" s="75">
+        <v>0</v>
+      </c>
+      <c r="D8" s="75">
+        <v>0</v>
+      </c>
+      <c r="E8" s="75">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="75">
         <v>1E-3</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="75">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="75">
         <v>90</v>
       </c>
-      <c r="I8" s="78">
-        <v>0</v>
-      </c>
-      <c r="J8" s="78">
+      <c r="I8" s="75">
+        <v>0</v>
+      </c>
+      <c r="J8" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="78">
-        <v>0</v>
-      </c>
-      <c r="D9" s="78">
-        <v>0</v>
-      </c>
-      <c r="E9" s="78">
+      <c r="C9" s="75">
+        <v>0</v>
+      </c>
+      <c r="D9" s="75">
+        <v>0</v>
+      </c>
+      <c r="E9" s="75">
+        <v>0.126</v>
+      </c>
+      <c r="F9" s="75">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="75">
+        <v>0.111</v>
+      </c>
+      <c r="H9" s="75">
+        <v>94</v>
+      </c>
+      <c r="I9" s="75">
+        <v>0</v>
+      </c>
+      <c r="J9" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="75">
+        <v>0</v>
+      </c>
+      <c r="D10" s="75">
+        <v>0</v>
+      </c>
+      <c r="E10" s="75">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F10" s="75">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G10" s="75">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H10" s="75">
+        <v>34</v>
+      </c>
+      <c r="I10" s="75">
+        <v>0</v>
+      </c>
+      <c r="J10" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0</v>
+      </c>
+      <c r="D11" s="75">
+        <v>0</v>
+      </c>
+      <c r="E11" s="75">
+        <v>0.22</v>
+      </c>
+      <c r="F11" s="75">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G11" s="75">
+        <v>0.127</v>
+      </c>
+      <c r="H11" s="75">
+        <v>149</v>
+      </c>
+      <c r="I11" s="75">
+        <v>0</v>
+      </c>
+      <c r="J11" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="75">
+        <v>0</v>
+      </c>
+      <c r="D12" s="75">
+        <v>0</v>
+      </c>
+      <c r="E12" s="75">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F12" s="75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G12" s="75">
+        <v>0.251</v>
+      </c>
+      <c r="H12" s="75">
+        <v>26</v>
+      </c>
+      <c r="I12" s="75">
+        <v>0</v>
+      </c>
+      <c r="J12" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="75">
+        <v>0</v>
+      </c>
+      <c r="D13" s="75">
+        <v>0</v>
+      </c>
+      <c r="E13" s="75">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F13" s="75">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="75">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H13" s="75">
+        <v>108</v>
+      </c>
+      <c r="I13" s="75">
+        <v>0</v>
+      </c>
+      <c r="J13" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="75">
+        <v>0</v>
+      </c>
+      <c r="D14" s="75">
+        <v>0</v>
+      </c>
+      <c r="E14" s="75">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F14" s="75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="75">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H14" s="75">
+        <v>181</v>
+      </c>
+      <c r="I14" s="75">
+        <v>0</v>
+      </c>
+      <c r="J14" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="75">
+        <v>0</v>
+      </c>
+      <c r="D15" s="75">
+        <v>0</v>
+      </c>
+      <c r="E15" s="75">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F15" s="75">
+        <v>1E-3</v>
+      </c>
+      <c r="G15" s="75">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F9" s="78">
+      <c r="H15" s="75">
+        <v>61</v>
+      </c>
+      <c r="I15" s="75">
+        <v>0</v>
+      </c>
+      <c r="J15" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="75">
+        <v>0</v>
+      </c>
+      <c r="D16" s="75">
+        <v>0</v>
+      </c>
+      <c r="E16" s="75">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F16" s="75">
         <v>1E-3</v>
       </c>
-      <c r="G9" s="78">
-        <v>0.04</v>
-      </c>
-      <c r="H9" s="78">
-        <v>60</v>
-      </c>
-      <c r="I9" s="78">
-        <v>0</v>
-      </c>
-      <c r="J9" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="78" t="s">
+      <c r="G16" s="75">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H16" s="75">
+        <v>33</v>
+      </c>
+      <c r="I16" s="75">
+        <v>0</v>
+      </c>
+      <c r="J16" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="78">
-        <v>0</v>
-      </c>
-      <c r="D10" s="78">
-        <v>0</v>
-      </c>
-      <c r="E10" s="78">
-        <v>0.126</v>
-      </c>
-      <c r="F10" s="78">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G10" s="78">
+      <c r="C17" s="75">
+        <v>0</v>
+      </c>
+      <c r="D17" s="75">
+        <v>0</v>
+      </c>
+      <c r="E17" s="75">
+        <v>0.318</v>
+      </c>
+      <c r="F17" s="75">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G17" s="75">
+        <v>0.311</v>
+      </c>
+      <c r="H17" s="75">
+        <v>32</v>
+      </c>
+      <c r="I17" s="75">
+        <v>1</v>
+      </c>
+      <c r="J17" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="75">
+        <v>0</v>
+      </c>
+      <c r="D18" s="75">
+        <v>0</v>
+      </c>
+      <c r="E18" s="75">
         <v>0.111</v>
       </c>
-      <c r="H10" s="78">
+      <c r="F18" s="75">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G18" s="75">
+        <v>0.111</v>
+      </c>
+      <c r="H18" s="75">
+        <v>33</v>
+      </c>
+      <c r="I18" s="75">
+        <v>0</v>
+      </c>
+      <c r="J18" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="75">
+        <v>0</v>
+      </c>
+      <c r="D19" s="75">
+        <v>0</v>
+      </c>
+      <c r="E19" s="75">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F19" s="75">
+        <v>2E-3</v>
+      </c>
+      <c r="G19" s="75">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H19" s="75">
+        <v>90</v>
+      </c>
+      <c r="I19" s="75">
+        <v>0</v>
+      </c>
+      <c r="J19" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="75">
+        <v>0</v>
+      </c>
+      <c r="D20" s="75">
+        <v>0</v>
+      </c>
+      <c r="E20" s="75">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F20" s="75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G20" s="75">
+        <v>0.251</v>
+      </c>
+      <c r="H20" s="75">
+        <v>26</v>
+      </c>
+      <c r="I20" s="75">
+        <v>0</v>
+      </c>
+      <c r="J20" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="75">
+        <v>0</v>
+      </c>
+      <c r="D21" s="75">
+        <v>0</v>
+      </c>
+      <c r="E21" s="75">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F21" s="75">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G21" s="75">
+        <v>0.442</v>
+      </c>
+      <c r="H21" s="75">
+        <v>28</v>
+      </c>
+      <c r="I21" s="75">
+        <v>0</v>
+      </c>
+      <c r="J21" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="75">
+        <v>0</v>
+      </c>
+      <c r="D22" s="75">
+        <v>0</v>
+      </c>
+      <c r="E22" s="75">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F22" s="75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G22" s="75">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H22" s="75">
+        <v>37</v>
+      </c>
+      <c r="I22" s="75">
+        <v>0</v>
+      </c>
+      <c r="J22" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="75">
+        <v>0</v>
+      </c>
+      <c r="D23" s="75">
+        <v>0</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F23" s="75">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G23" s="75">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H23" s="75">
         <v>34</v>
       </c>
-      <c r="I10" s="78">
-        <v>0</v>
-      </c>
-      <c r="J10" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="78" t="s">
+      <c r="I23" s="75">
+        <v>0</v>
+      </c>
+      <c r="J23" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="78">
-        <v>0</v>
-      </c>
-      <c r="D11" s="78">
-        <v>0</v>
-      </c>
-      <c r="E11" s="78">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="F11" s="78">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G11" s="78">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="H11" s="78">
-        <v>34</v>
-      </c>
-      <c r="I11" s="78">
-        <v>0</v>
-      </c>
-      <c r="J11" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="78" t="s">
+      <c r="C24" s="75">
+        <v>0</v>
+      </c>
+      <c r="D24" s="75">
+        <v>0</v>
+      </c>
+      <c r="E24" s="75">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F24" s="75">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G24" s="75">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H24" s="75">
+        <v>23</v>
+      </c>
+      <c r="I24" s="75">
+        <v>0</v>
+      </c>
+      <c r="J24" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="78">
-        <v>0</v>
-      </c>
-      <c r="D12" s="78">
-        <v>0</v>
-      </c>
-      <c r="E12" s="78">
-        <v>0.22</v>
-      </c>
-      <c r="F12" s="78">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G12" s="78">
-        <v>0.127</v>
-      </c>
-      <c r="H12" s="78">
-        <v>149</v>
-      </c>
-      <c r="I12" s="78">
-        <v>0</v>
-      </c>
-      <c r="J12" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="78">
-        <v>0</v>
-      </c>
-      <c r="D13" s="78">
-        <v>0</v>
-      </c>
-      <c r="E13" s="78">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="F13" s="78">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G13" s="78">
-        <v>0.251</v>
-      </c>
-      <c r="H13" s="78">
-        <v>26</v>
-      </c>
-      <c r="I13" s="78">
-        <v>0</v>
-      </c>
-      <c r="J13" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="78">
-        <v>0</v>
-      </c>
-      <c r="D14" s="78">
-        <v>0</v>
-      </c>
-      <c r="E14" s="78">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F14" s="78">
-        <v>2E-3</v>
-      </c>
-      <c r="G14" s="78">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H14" s="78">
-        <v>146</v>
-      </c>
-      <c r="I14" s="78">
-        <v>0</v>
-      </c>
-      <c r="J14" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="78">
-        <v>0</v>
-      </c>
-      <c r="D15" s="78">
-        <v>0</v>
-      </c>
-      <c r="E15" s="78">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F15" s="78">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G15" s="78">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H15" s="78">
-        <v>181</v>
-      </c>
-      <c r="I15" s="78">
-        <v>0</v>
-      </c>
-      <c r="J15" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="78">
-        <v>0</v>
-      </c>
-      <c r="D16" s="78">
-        <v>0</v>
-      </c>
-      <c r="E16" s="78">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F16" s="78">
-        <v>1E-3</v>
-      </c>
-      <c r="G16" s="78">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H16" s="78">
-        <v>61</v>
-      </c>
-      <c r="I16" s="78">
-        <v>0</v>
-      </c>
-      <c r="J16" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="78">
-        <v>0</v>
-      </c>
-      <c r="D17" s="78">
-        <v>0</v>
-      </c>
-      <c r="E17" s="78">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F17" s="78">
-        <v>1E-3</v>
-      </c>
-      <c r="G17" s="78">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H17" s="78">
-        <v>33</v>
-      </c>
-      <c r="I17" s="78">
-        <v>0</v>
-      </c>
-      <c r="J17" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="78">
-        <v>0</v>
-      </c>
-      <c r="D18" s="78">
-        <v>0</v>
-      </c>
-      <c r="E18" s="78">
+      <c r="C25" s="75">
+        <v>0</v>
+      </c>
+      <c r="D25" s="75">
+        <v>0</v>
+      </c>
+      <c r="E25" s="75">
         <v>0.318</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F25" s="75">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G18" s="78">
+      <c r="G25" s="75">
         <v>0.311</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H25" s="75">
         <v>32</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I25" s="75">
         <v>1</v>
       </c>
-      <c r="J18" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="78">
-        <v>0</v>
-      </c>
-      <c r="D19" s="78">
-        <v>0</v>
-      </c>
-      <c r="E19" s="78">
-        <v>0.111</v>
-      </c>
-      <c r="F19" s="78">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G19" s="78">
-        <v>0.111</v>
-      </c>
-      <c r="H19" s="78">
-        <v>33</v>
-      </c>
-      <c r="I19" s="78">
-        <v>0</v>
-      </c>
-      <c r="J19" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="78">
-        <v>0</v>
-      </c>
-      <c r="D20" s="78">
-        <v>0</v>
-      </c>
-      <c r="E20" s="78">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F20" s="78">
-        <v>2E-3</v>
-      </c>
-      <c r="G20" s="78">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H20" s="78">
-        <v>90</v>
-      </c>
-      <c r="I20" s="78">
-        <v>0</v>
-      </c>
-      <c r="J20" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="78">
-        <v>0</v>
-      </c>
-      <c r="D21" s="78">
-        <v>0</v>
-      </c>
-      <c r="E21" s="78">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="F21" s="78">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G21" s="78">
-        <v>0.251</v>
-      </c>
-      <c r="H21" s="78">
-        <v>26</v>
-      </c>
-      <c r="I21" s="78">
-        <v>0</v>
-      </c>
-      <c r="J21" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="78">
-        <v>0</v>
-      </c>
-      <c r="D22" s="78">
-        <v>0</v>
-      </c>
-      <c r="E22" s="78">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="F22" s="78">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G22" s="78">
-        <v>0.442</v>
-      </c>
-      <c r="H22" s="78">
-        <v>28</v>
-      </c>
-      <c r="I22" s="78">
-        <v>0</v>
-      </c>
-      <c r="J22" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="78">
-        <v>0</v>
-      </c>
-      <c r="D23" s="78">
-        <v>0</v>
-      </c>
-      <c r="E23" s="78">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="F23" s="78">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G23" s="78">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="H23" s="78">
-        <v>37</v>
-      </c>
-      <c r="I23" s="78">
-        <v>0</v>
-      </c>
-      <c r="J23" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="78">
-        <v>0</v>
-      </c>
-      <c r="D24" s="78">
-        <v>0</v>
-      </c>
-      <c r="E24" s="78">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="F24" s="78">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G24" s="78">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="H24" s="78">
-        <v>34</v>
-      </c>
-      <c r="I24" s="78">
-        <v>0</v>
-      </c>
-      <c r="J24" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="78">
-        <v>0</v>
-      </c>
-      <c r="D25" s="78">
-        <v>0</v>
-      </c>
-      <c r="E25" s="78">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F25" s="78">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G25" s="78">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H25" s="78">
-        <v>23</v>
-      </c>
-      <c r="I25" s="78">
-        <v>0</v>
-      </c>
-      <c r="J25" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="78">
-        <v>0</v>
-      </c>
-      <c r="D26" s="78">
-        <v>0</v>
-      </c>
-      <c r="E26" s="78">
-        <v>0.318</v>
-      </c>
-      <c r="F26" s="78">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G26" s="78">
-        <v>0.311</v>
-      </c>
-      <c r="H26" s="78">
-        <v>32</v>
-      </c>
-      <c r="I26" s="78">
-        <v>1</v>
-      </c>
-      <c r="J26" s="78">
+      <c r="J25" s="75">
         <v>0</v>
       </c>
     </row>
@@ -6847,7 +6772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C9:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -6873,13 +6798,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -7032,13 +6957,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -7198,13 +7123,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
